--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-FV-faunavoorzieningen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-FV-faunavoorzieningen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{54DC812E-39D8-48BB-86C8-85B741987BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C04BCF48-430D-4D5A-9191-652ADE6DE4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{F8A4E36F-859E-411E-AAF5-40F6C59E7657}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB34BBE7-E93C-44F9-8D26-70FEE8661954}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-FV-faunavo" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="210">
   <si>
     <t>objectURI</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>FAUNAPASSAGE_VISTRAP</t>
+  </si>
+  <si>
+    <t>204,100,110</t>
   </si>
   <si>
     <t>FAUNAPASSAGE</t>
@@ -1509,16 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02526859-ED1E-4E58-BAC0-BB68ECE02BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27E88EB-C757-409A-98FA-9CF94F235706}">
   <dimension ref="A1:BS59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG13" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -3714,13 +3715,52 @@
         <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>208</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
       </c>
       <c r="X12" t="s">
         <v>85</v>
@@ -6241,6 +6281,45 @@
       <c r="I25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25">
+        <v>90</v>
+      </c>
+      <c r="N25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25">
+        <v>90</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s">
+        <v>208</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
       <c r="X25" t="s">
         <v>85</v>
       </c>
@@ -13049,7 +13128,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS59" xr:uid="{02526859-ED1E-4E58-BAC0-BB68ECE02BD8}">
+  <autoFilter ref="A1:BS59" xr:uid="{B27E88EB-C757-409A-98FA-9CF94F235706}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS59">
       <sortCondition ref="E1:E59"/>
     </sortState>
